--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H2">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q2">
-        <v>1.812071736298711</v>
+        <v>2.594640241763555</v>
       </c>
       <c r="R2">
-        <v>1.812071736298711</v>
+        <v>23.351762175872</v>
       </c>
       <c r="S2">
-        <v>0.003557842423446556</v>
+        <v>0.004646907821912227</v>
       </c>
       <c r="T2">
-        <v>0.003557842423446556</v>
+        <v>0.004646907821912225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H3">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P3">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q3">
-        <v>38.46713439224536</v>
+        <v>51.10057166831644</v>
       </c>
       <c r="R3">
-        <v>38.46713439224536</v>
+        <v>459.905145014848</v>
       </c>
       <c r="S3">
-        <v>0.07552681271255691</v>
+        <v>0.09151929518686824</v>
       </c>
       <c r="T3">
-        <v>0.07552681271255691</v>
+        <v>0.09151929518686823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H4">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N4">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P4">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q4">
-        <v>12.44586436098345</v>
+        <v>18.57296675881955</v>
       </c>
       <c r="R4">
-        <v>12.44586436098345</v>
+        <v>167.156700829376</v>
       </c>
       <c r="S4">
-        <v>0.02443635278502521</v>
+        <v>0.03326351881793535</v>
       </c>
       <c r="T4">
-        <v>0.02443635278502521</v>
+        <v>0.03326351881793535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H5">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I5">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J5">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q5">
-        <v>1.033497835007201</v>
+        <v>1.261477433727333</v>
       </c>
       <c r="R5">
-        <v>1.033497835007201</v>
+        <v>11.353296903546</v>
       </c>
       <c r="S5">
-        <v>0.002029181498873425</v>
+        <v>0.002259260940919106</v>
       </c>
       <c r="T5">
-        <v>0.002029181498873425</v>
+        <v>0.002259260940919106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H6">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I6">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J6">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N6">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P6">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q6">
-        <v>21.93936328068366</v>
+        <v>24.84437609983767</v>
       </c>
       <c r="R6">
-        <v>21.93936328068366</v>
+        <v>223.599384898539</v>
       </c>
       <c r="S6">
-        <v>0.04307599741214365</v>
+        <v>0.04449538852075877</v>
       </c>
       <c r="T6">
-        <v>0.04307599741214365</v>
+        <v>0.04449538852075876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H7">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N7">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P7">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q7">
-        <v>7.098380055385022</v>
+        <v>9.029914076910332</v>
       </c>
       <c r="R7">
-        <v>7.098380055385022</v>
+        <v>81.269226692193</v>
       </c>
       <c r="S7">
-        <v>0.01393704078756879</v>
+        <v>0.01617225296971008</v>
       </c>
       <c r="T7">
-        <v>0.01393704078756879</v>
+        <v>0.01617225296971008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H8">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I8">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J8">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N8">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P8">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q8">
-        <v>7.900598707586152</v>
+        <v>8.630072755093114</v>
       </c>
       <c r="R8">
-        <v>7.900598707586152</v>
+        <v>77.670654795838</v>
       </c>
       <c r="S8">
-        <v>0.01551212608717793</v>
+        <v>0.01545615147094767</v>
       </c>
       <c r="T8">
-        <v>0.01551212608717793</v>
+        <v>0.01545615147094766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H9">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I9">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J9">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q9">
-        <v>167.7159828587591</v>
+        <v>169.9663961986019</v>
       </c>
       <c r="R9">
-        <v>167.7159828587591</v>
+        <v>1529.697565787417</v>
       </c>
       <c r="S9">
-        <v>0.3292954837007426</v>
+        <v>0.3044037332207116</v>
       </c>
       <c r="T9">
-        <v>0.3292954837007426</v>
+        <v>0.3044037332207115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H10">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I10">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J10">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N10">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P10">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q10">
-        <v>54.2637346609821</v>
+        <v>61.77582996924212</v>
       </c>
       <c r="R10">
-        <v>54.2637346609821</v>
+        <v>555.9824697231791</v>
       </c>
       <c r="S10">
-        <v>0.1065420387968924</v>
+        <v>0.1106383007819512</v>
       </c>
       <c r="T10">
-        <v>0.1065420387968924</v>
+        <v>0.1106383007819512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H11">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I11">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J11">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N11">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P11">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q11">
-        <v>6.422643415251293</v>
+        <v>7.149471804932889</v>
       </c>
       <c r="R11">
-        <v>6.422643415251293</v>
+        <v>64.34524624439599</v>
       </c>
       <c r="S11">
-        <v>0.01261029172063853</v>
+        <v>0.0128044481535915</v>
       </c>
       <c r="T11">
-        <v>0.01261029172063853</v>
+        <v>0.0128044481535915</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H12">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I12">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J12">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N12">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P12">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q12">
-        <v>136.3415600270774</v>
+        <v>140.8064557382571</v>
       </c>
       <c r="R12">
-        <v>136.3415600270774</v>
+        <v>1267.258101644314</v>
       </c>
       <c r="S12">
-        <v>0.2676945821880298</v>
+        <v>0.2521793233658908</v>
       </c>
       <c r="T12">
-        <v>0.2676945821880298</v>
+        <v>0.2521793233658908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H13">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I13">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J13">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q13">
-        <v>44.11268449474019</v>
+        <v>51.17738484079089</v>
       </c>
       <c r="R13">
-        <v>44.11268449474019</v>
+        <v>460.596463567118</v>
       </c>
       <c r="S13">
-        <v>0.08661135051312778</v>
+        <v>0.09165686482995478</v>
       </c>
       <c r="T13">
-        <v>0.08661135051312778</v>
+        <v>0.09165686482995478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H14">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I14">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J14">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="N14">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="O14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="P14">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="Q14">
-        <v>0.3355748327059166</v>
+        <v>0.4110488687326667</v>
       </c>
       <c r="R14">
-        <v>0.3355748327059166</v>
+        <v>3.699439818594</v>
       </c>
       <c r="S14">
-        <v>0.000658871474084555</v>
+        <v>0.0007361738142177729</v>
       </c>
       <c r="T14">
-        <v>0.000658871474084555</v>
+        <v>0.0007361738142177728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H15">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I15">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J15">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N15">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="O15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="P15">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="Q15">
-        <v>7.123670619531051</v>
+        <v>8.095469976052334</v>
       </c>
       <c r="R15">
-        <v>7.123670619531051</v>
+        <v>72.859229784471</v>
       </c>
       <c r="S15">
-        <v>0.01398669657118332</v>
+        <v>0.01449869702483452</v>
       </c>
       <c r="T15">
-        <v>0.01398669657118332</v>
+        <v>0.01449869702483452</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H16">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I16">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J16">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="N16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="O16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="P16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="Q16">
-        <v>2.304830855840396</v>
+        <v>2.942372068519667</v>
       </c>
       <c r="R16">
-        <v>2.304830855840396</v>
+        <v>26.481348616677</v>
       </c>
       <c r="S16">
-        <v>0.004525331328508633</v>
+        <v>0.005269683079796341</v>
       </c>
       <c r="T16">
-        <v>0.004525331328508633</v>
+        <v>0.005269683079796342</v>
       </c>
     </row>
   </sheetData>
